--- a/Telecomunicacion/UNIDAD IV/PRACTICA/JG_T_UNIDAD4_COTIZACION.xlsx
+++ b/Telecomunicacion/UNIDAD IV/PRACTICA/JG_T_UNIDAD4_COTIZACION.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\QuintoSemestre\Telecomunicacion\UNIDAD IV\PRACTICA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F2CC9B2-DA29-494F-A2B8-AFEA0CCADCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11505" xr2:uid="{892849E1-09EE-4820-A5AE-CDE1B999BF99}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>COTIZACION</t>
   </si>
@@ -90,13 +89,37 @@
     <t>TORRE 7</t>
   </si>
   <si>
-    <t>$2,500/METROS</t>
+    <t>$4,500/METROS</t>
+  </si>
+  <si>
+    <t>MEDIDA</t>
+  </si>
+  <si>
+    <t>pza.</t>
+  </si>
+  <si>
+    <t>mts.</t>
+  </si>
+  <si>
+    <t>SUBTOTAL:</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>TORRE 8</t>
+  </si>
+  <si>
+    <t>TORRE 9</t>
+  </si>
+  <si>
+    <t>TORRE 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -154,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -251,12 +274,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -265,11 +299,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -584,11 +620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C286F9B-9363-4953-A3E6-55E7496002AA}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,19 +633,21 @@
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -622,214 +660,331 @@
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>2000</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>10</v>
       </c>
-      <c r="E3" s="11">
-        <f>C3*D3</f>
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" ref="F3:F17" si="0">C3*D3</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>2393</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>10</v>
       </c>
-      <c r="E4" s="11">
-        <f t="shared" ref="E4:E14" si="0">C4*D4</f>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
         <v>23930</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>3198.23</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>6396.46</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>2715</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>5430</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>2192</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>7</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>15344</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10">
-        <v>2500</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="9">
+        <v>4500</v>
+      </c>
+      <c r="D8" s="8">
         <v>8</v>
       </c>
-      <c r="E8" s="11">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10">
-        <v>2500</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="C9" s="9">
+        <v>4500</v>
+      </c>
+      <c r="D9" s="8">
         <v>6</v>
       </c>
-      <c r="E9" s="11">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10">
-        <v>2500</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" s="9">
+        <v>4500</v>
+      </c>
+      <c r="D10" s="8">
         <v>14</v>
       </c>
-      <c r="E10" s="11">
-        <f t="shared" si="0"/>
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10">
-        <v>2500</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="C11" s="9">
+        <v>4500</v>
+      </c>
+      <c r="D11" s="8">
         <v>12</v>
       </c>
-      <c r="E11" s="11">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="10">
-        <v>2500</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="C12" s="9">
+        <v>4500</v>
+      </c>
+      <c r="D12" s="8">
         <v>48</v>
       </c>
-      <c r="E12" s="11">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="10">
-        <v>2500</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="C13" s="9">
+        <v>4500</v>
+      </c>
+      <c r="D13" s="8">
         <v>43</v>
       </c>
-      <c r="E13" s="11">
-        <f t="shared" si="0"/>
-        <v>107500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="9" t="s">
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>193500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="10">
-        <v>2500</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="C14" s="9">
+        <v>4500</v>
+      </c>
+      <c r="D14" s="8">
         <v>44</v>
       </c>
-      <c r="E14" s="11">
-        <f t="shared" si="0"/>
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="8">
-        <f>E3+E4+E5+E6+E7+E8+E9+E10+E11+E12+E13+E14</f>
-        <v>508600.45999999996</v>
+      <c r="E14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="9">
+        <v>4500</v>
+      </c>
+      <c r="D15" s="8">
+        <v>34</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="9">
+        <v>4500</v>
+      </c>
+      <c r="D16" s="8">
+        <v>40</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4500</v>
+      </c>
+      <c r="D17" s="8">
+        <v>25</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="12">
+        <f>F3+F4+F5+F6+F7+F8+F9+F10+F11+F12+F13+F14+F15+F16+F17</f>
+        <v>1304100.46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="12">
+        <f>0.16*F18</f>
+        <v>208656.0736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="12">
+        <f>F18+F19</f>
+        <v>1512756.5336</v>
       </c>
     </row>
   </sheetData>
